--- a/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
+++ b/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19695" windowHeight="10455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 12 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 14 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Statistikdatum</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Data uppdateras dagligen kl 11.30 och finns tillgägliga dagligen kl 14.00. Läs mer på https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/</t>
-  </si>
-  <si>
-    <t>uppgift saknas</t>
   </si>
 </sst>
 </file>
@@ -508,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3577,7 +3574,7 @@
         <v>43907</v>
       </c>
       <c r="B44" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3625,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" s="2">
         <v>1</v>
@@ -4358,7 +4355,7 @@
         <v>43918</v>
       </c>
       <c r="B55" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -4397,7 +4394,7 @@
         <v>147</v>
       </c>
       <c r="O55" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P55" s="2">
         <v>7</v>
@@ -4500,7 +4497,7 @@
         <v>43920</v>
       </c>
       <c r="B57" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -4536,7 +4533,7 @@
         <v>5</v>
       </c>
       <c r="N57" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="2">
         <v>60</v>
@@ -5210,7 +5207,7 @@
         <v>43930</v>
       </c>
       <c r="B67" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -5267,10 +5264,10 @@
         <v>24</v>
       </c>
       <c r="U67" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V67" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W67" s="2">
         <v>54</v>
@@ -5281,7 +5278,7 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -5317,7 +5314,7 @@
         <v>24</v>
       </c>
       <c r="N68" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O68" s="2">
         <v>41</v>
@@ -5352,13 +5349,13 @@
         <v>43932</v>
       </c>
       <c r="B69" s="2">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2">
         <v>3</v>
@@ -5382,19 +5379,19 @@
         <v>10</v>
       </c>
       <c r="L69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" s="2">
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
       </c>
       <c r="P69" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="2">
         <v>2</v>
@@ -5406,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="U69" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="V69" s="2">
         <v>8</v>
@@ -5423,70 +5420,212 @@
         <v>43933</v>
       </c>
       <c r="B70" s="2">
-        <v>99</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N70" s="2">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="O70" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P70" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q70" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R70" s="2">
         <v>0</v>
       </c>
       <c r="S70" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T70" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U70" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="V70" s="2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W70" s="2">
-        <v>0</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B71" s="2">
+        <v>421</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2">
+        <v>3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>6</v>
+      </c>
+      <c r="I71" s="2">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2">
+        <v>6</v>
+      </c>
+      <c r="K71" s="2">
+        <v>3</v>
+      </c>
+      <c r="L71" s="2">
+        <v>17</v>
+      </c>
+      <c r="M71" s="2">
+        <v>9</v>
+      </c>
+      <c r="N71" s="2">
+        <v>201</v>
+      </c>
+      <c r="O71" s="2">
+        <v>20</v>
+      </c>
+      <c r="P71" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>3</v>
+      </c>
+      <c r="R71" s="2">
+        <v>5</v>
+      </c>
+      <c r="S71" s="2">
+        <v>6</v>
+      </c>
+      <c r="T71" s="2">
+        <v>18</v>
+      </c>
+      <c r="U71" s="2">
+        <v>48</v>
+      </c>
+      <c r="V71" s="2">
+        <v>4</v>
+      </c>
+      <c r="W71" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B72" s="2">
+        <v>124</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>3</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>3</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>95</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="T72" s="2">
+        <v>11</v>
+      </c>
+      <c r="U72" s="2">
+        <v>4</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5496,15 +5635,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5568,7 +5707,7 @@
         <v>43907</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5656,7 +5795,7 @@
         <v>43918</v>
       </c>
       <c r="B19" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5664,7 +5803,7 @@
         <v>43919</v>
       </c>
       <c r="B20" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5672,7 +5811,7 @@
         <v>43920</v>
       </c>
       <c r="B21" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5680,7 +5819,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5688,7 +5827,7 @@
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5696,7 +5835,7 @@
         <v>43923</v>
       </c>
       <c r="B24" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5704,7 +5843,7 @@
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5712,7 +5851,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5720,7 +5859,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5728,7 +5867,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5736,7 +5875,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5744,7 +5883,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5752,7 +5891,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5760,7 +5899,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5768,7 +5907,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5776,15 +5915,31 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="1">
+        <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5794,13 +5949,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -5975,7 +6133,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6031,7 +6189,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6055,7 +6213,7 @@
         <v>43926</v>
       </c>
       <c r="B32" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6063,7 +6221,7 @@
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6071,7 +6229,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6087,7 +6245,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6095,7 +6253,7 @@
         <v>43931</v>
       </c>
       <c r="B37" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6103,7 +6261,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6111,7 +6269,23 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +6301,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -6151,16 +6325,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
-        <v>25.688257217407227</v>
+        <v>26.314800262451172</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6168,16 +6342,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="C3" s="2">
-        <v>109.73517608642578</v>
+        <v>126.75107574462891</v>
       </c>
       <c r="D3" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6191,7 +6365,7 @@
         <v>26.806957244873047</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -6202,16 +6376,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C5" s="2">
-        <v>94.995513916015625</v>
+        <v>104.73863983154297</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6219,16 +6393,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2">
-        <v>54.515827178955078</v>
+        <v>56.612590789794922</v>
       </c>
       <c r="D6" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6236,10 +6410,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
-        <v>97.087379455566406</v>
+        <v>104.7320556640625</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -6253,16 +6427,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C8" s="2">
-        <v>93.509605407714844</v>
+        <v>97.635032653808594</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6270,16 +6444,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
-        <v>27.704668045043945</v>
+        <v>32.186305999755859</v>
       </c>
       <c r="D9" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6287,13 +6461,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
-        <v>48.146366119384766</v>
+        <v>51.620845794677734</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -6304,16 +6478,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2">
-        <v>53.580066680908203</v>
+        <v>62.776645660400391</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6321,16 +6495,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="C12" s="2">
-        <v>31.571453094482422</v>
+        <v>33.240749359130859</v>
       </c>
       <c r="D12" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6338,16 +6512,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>4397</v>
+        <v>4806</v>
       </c>
       <c r="C13" s="2">
-        <v>184.97476196289063</v>
+        <v>202.18074035644531</v>
       </c>
       <c r="D13" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E13" s="2">
-        <v>528</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6355,16 +6529,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="C14" s="2">
-        <v>222.15499877929688</v>
+        <v>233.24595642089844</v>
       </c>
       <c r="D14" s="2">
         <v>64</v>
       </c>
       <c r="E14" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6372,16 +6546,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2">
-        <v>117.01454162597656</v>
+        <v>124.57227325439453</v>
       </c>
       <c r="D15" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6389,13 +6563,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
-        <v>26.556756973266602</v>
+        <v>29.03538703918457</v>
       </c>
       <c r="D16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -6406,16 +6580,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2">
-        <v>67.344772338867188</v>
+        <v>68.816795349121094</v>
       </c>
       <c r="D17" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6423,16 +6597,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2">
-        <v>40.758598327636719</v>
+        <v>45.242046356201172</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6440,16 +6614,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="C19" s="2">
-        <v>110.20681762695313</v>
+        <v>137.39599609375</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6457,16 +6631,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1018</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="2">
-        <v>58.984367370605469</v>
+        <v>64.083213806152344</v>
       </c>
       <c r="D20" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6474,16 +6648,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="C21" s="2">
-        <v>103.67283630371094</v>
+        <v>127.29450225830078</v>
       </c>
       <c r="D21" s="2">
         <v>26</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6491,16 +6665,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>951</v>
+        <v>1011</v>
       </c>
       <c r="C22" s="2">
-        <v>204.29864501953125</v>
+        <v>217.18815612792969</v>
       </c>
       <c r="D22" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6513,10 +6687,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6537,13 +6711,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>5131</v>
+        <v>5586</v>
       </c>
       <c r="C2" s="2">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="D2" s="2">
-        <v>523</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6551,13 +6725,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>5350</v>
+        <v>5857</v>
       </c>
       <c r="C3" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2">
-        <v>376</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6583,9 +6757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6606,10 +6782,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -6620,7 +6796,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -6634,10 +6810,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>767</v>
+        <v>833</v>
       </c>
       <c r="C4" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6648,10 +6824,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>978</v>
+        <v>1057</v>
       </c>
       <c r="C5" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -6662,13 +6838,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1342</v>
+        <v>1460</v>
       </c>
       <c r="C6" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6676,13 +6852,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>1813</v>
+        <v>1961</v>
       </c>
       <c r="C7" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6690,13 +6866,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>1460</v>
+        <v>1590</v>
       </c>
       <c r="C8" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6704,13 +6880,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>1475</v>
+        <v>1617</v>
       </c>
       <c r="C9" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D9" s="2">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6718,13 +6894,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>1599</v>
+        <v>1778</v>
       </c>
       <c r="C10" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6732,13 +6908,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6746,7 +6922,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -6764,9 +6940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
+++ b/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 14 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 19 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,15 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -2651,7 +2649,7 @@
         <v>43894</v>
       </c>
       <c r="B31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -2711,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="2">
         <v>0</v>
@@ -2793,7 +2791,7 @@
         <v>43896</v>
       </c>
       <c r="B33" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -2853,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
@@ -4497,7 +4495,7 @@
         <v>43920</v>
       </c>
       <c r="B57" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -4533,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="N57" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="2">
         <v>60</v>
@@ -4781,7 +4779,7 @@
         <v>43924</v>
       </c>
       <c r="B61" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -4838,10 +4836,10 @@
         <v>27</v>
       </c>
       <c r="U61" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V61" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W61" s="2">
         <v>27</v>
@@ -4994,7 +4992,7 @@
         <v>43927</v>
       </c>
       <c r="B64" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -5012,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64" s="2">
         <v>10</v>
@@ -5033,7 +5031,7 @@
         <v>131</v>
       </c>
       <c r="O64" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P64" s="2">
         <v>31</v>
@@ -5051,7 +5049,7 @@
         <v>18</v>
       </c>
       <c r="U64" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V64" s="2">
         <v>12</v>
@@ -5065,7 +5063,7 @@
         <v>43928</v>
       </c>
       <c r="B65" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -5125,7 +5123,7 @@
         <v>64</v>
       </c>
       <c r="V65" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W65" s="2">
         <v>57</v>
@@ -5207,7 +5205,7 @@
         <v>43930</v>
       </c>
       <c r="B67" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -5234,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L67" s="2">
         <v>5</v>
@@ -5278,7 +5276,7 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -5338,7 +5336,7 @@
         <v>69</v>
       </c>
       <c r="V68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W68" s="2">
         <v>31</v>
@@ -5349,7 +5347,7 @@
         <v>43932</v>
       </c>
       <c r="B69" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5385,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
@@ -5409,7 +5407,7 @@
         <v>32</v>
       </c>
       <c r="V69" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W69" s="2">
         <v>26</v>
@@ -5420,7 +5418,7 @@
         <v>43933</v>
       </c>
       <c r="B70" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -5474,13 +5472,13 @@
         <v>5</v>
       </c>
       <c r="T70" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U70" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V70" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="W70" s="2">
         <v>22</v>
@@ -5491,7 +5489,7 @@
         <v>43934</v>
       </c>
       <c r="B71" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -5527,7 +5525,7 @@
         <v>9</v>
       </c>
       <c r="N71" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O71" s="2">
         <v>20</v>
@@ -5551,7 +5549,7 @@
         <v>48</v>
       </c>
       <c r="V71" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W71" s="2">
         <v>31</v>
@@ -5562,70 +5560,425 @@
         <v>43935</v>
       </c>
       <c r="B72" s="2">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72" s="2">
+        <v>5</v>
+      </c>
+      <c r="K72" s="2">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2">
+        <v>4</v>
+      </c>
+      <c r="M72" s="2">
+        <v>12</v>
+      </c>
+      <c r="N72" s="2">
+        <v>180</v>
+      </c>
+      <c r="O72" s="2">
+        <v>16</v>
+      </c>
+      <c r="P72" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>2</v>
+      </c>
+      <c r="R72" s="2">
+        <v>5</v>
+      </c>
+      <c r="S72" s="2">
+        <v>5</v>
+      </c>
+      <c r="T72" s="2">
+        <v>12</v>
+      </c>
+      <c r="U72" s="2">
+        <v>63</v>
+      </c>
+      <c r="V72" s="2">
+        <v>52</v>
+      </c>
+      <c r="W72" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B73" s="2">
+        <v>604</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2">
+        <v>28</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+      <c r="K73" s="2">
+        <v>12</v>
+      </c>
+      <c r="L73" s="2">
         <v>3</v>
       </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2">
+      <c r="M73" s="2">
+        <v>19</v>
+      </c>
+      <c r="N73" s="2">
+        <v>215</v>
+      </c>
+      <c r="O73" s="2">
+        <v>41</v>
+      </c>
+      <c r="P73" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="2">
         <v>3</v>
       </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <v>95</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0</v>
-      </c>
-      <c r="P72" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0</v>
-      </c>
-      <c r="T72" s="2">
-        <v>11</v>
-      </c>
-      <c r="U72" s="2">
+      <c r="R73" s="2">
+        <v>14</v>
+      </c>
+      <c r="S73" s="2">
+        <v>5</v>
+      </c>
+      <c r="T73" s="2">
+        <v>30</v>
+      </c>
+      <c r="U73" s="2">
+        <v>70</v>
+      </c>
+      <c r="V73" s="2">
+        <v>30</v>
+      </c>
+      <c r="W73" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B74" s="2">
+        <v>624</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2">
+        <v>12</v>
+      </c>
+      <c r="I74" s="2">
+        <v>23</v>
+      </c>
+      <c r="J74" s="2">
         <v>4</v>
       </c>
-      <c r="V72" s="2">
-        <v>0</v>
-      </c>
-      <c r="W72" s="2">
+      <c r="K74" s="2">
+        <v>10</v>
+      </c>
+      <c r="L74" s="2">
+        <v>13</v>
+      </c>
+      <c r="M74" s="2">
+        <v>17</v>
+      </c>
+      <c r="N74" s="2">
+        <v>221</v>
+      </c>
+      <c r="O74" s="2">
+        <v>47</v>
+      </c>
+      <c r="P74" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2">
         <v>7</v>
+      </c>
+      <c r="R74" s="2">
+        <v>3</v>
+      </c>
+      <c r="S74" s="2">
+        <v>3</v>
+      </c>
+      <c r="T74" s="2">
+        <v>31</v>
+      </c>
+      <c r="U74" s="2">
+        <v>85</v>
+      </c>
+      <c r="V74" s="2">
+        <v>30</v>
+      </c>
+      <c r="W74" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B75" s="2">
+        <v>688</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>26</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>23</v>
+      </c>
+      <c r="G75" s="2">
+        <v>9</v>
+      </c>
+      <c r="H75" s="2">
+        <v>19</v>
+      </c>
+      <c r="I75" s="2">
+        <v>36</v>
+      </c>
+      <c r="J75" s="2">
+        <v>5</v>
+      </c>
+      <c r="K75" s="2">
+        <v>12</v>
+      </c>
+      <c r="L75" s="2">
+        <v>15</v>
+      </c>
+      <c r="M75" s="2">
+        <v>21</v>
+      </c>
+      <c r="N75" s="2">
+        <v>222</v>
+      </c>
+      <c r="O75" s="2">
+        <v>64</v>
+      </c>
+      <c r="P75" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>3</v>
+      </c>
+      <c r="R75" s="2">
+        <v>19</v>
+      </c>
+      <c r="S75" s="2">
+        <v>5</v>
+      </c>
+      <c r="T75" s="2">
+        <v>27</v>
+      </c>
+      <c r="U75" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" s="2">
+        <v>32</v>
+      </c>
+      <c r="W75" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B76" s="2">
+        <v>524</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>27</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>29</v>
+      </c>
+      <c r="G76" s="2">
+        <v>7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2">
+        <v>35</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>21</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>17</v>
+      </c>
+      <c r="N76" s="2">
+        <v>175</v>
+      </c>
+      <c r="O76" s="2">
+        <v>8</v>
+      </c>
+      <c r="P76" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>3</v>
+      </c>
+      <c r="R76" s="2">
+        <v>3</v>
+      </c>
+      <c r="S76" s="2">
+        <v>2</v>
+      </c>
+      <c r="T76" s="2">
+        <v>17</v>
+      </c>
+      <c r="U76" s="2">
+        <v>46</v>
+      </c>
+      <c r="V76" s="2">
+        <v>52</v>
+      </c>
+      <c r="W76" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B77" s="2">
+        <v>115</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2">
+        <v>103</v>
+      </c>
+      <c r="O77" s="2">
+        <v>3</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2">
+        <v>7</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0</v>
+      </c>
+      <c r="V77" s="2">
+        <v>0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5635,15 +5988,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5779,7 +6132,7 @@
         <v>43916</v>
       </c>
       <c r="B17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5811,7 +6164,7 @@
         <v>43920</v>
       </c>
       <c r="B21" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5819,7 +6172,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5827,7 +6180,7 @@
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5835,7 +6188,7 @@
         <v>43923</v>
       </c>
       <c r="B24" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5843,7 +6196,7 @@
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5851,7 +6204,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5859,7 +6212,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5867,7 +6220,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5875,7 +6228,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5883,7 +6236,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5891,7 +6244,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5899,7 +6252,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5907,7 +6260,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5915,7 +6268,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5923,7 +6276,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5931,15 +6284,55 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B37" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B38" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B39" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>15</v>
+      <c r="B42" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5949,15 +6342,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6101,7 +6492,7 @@
         <v>43912</v>
       </c>
       <c r="B18" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6189,7 +6580,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6205,7 +6596,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6229,7 +6620,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6237,7 +6628,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6245,7 +6636,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6253,7 +6644,7 @@
         <v>43931</v>
       </c>
       <c r="B37" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6261,7 +6652,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6269,7 +6660,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6277,7 +6668,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6285,7 +6676,47 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>5</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B42" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B43" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B44" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B46" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6297,11 +6728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -6325,10 +6759,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
-        <v>26.314800262451172</v>
+        <v>26.941343307495117</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -6342,16 +6776,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="C3" s="2">
-        <v>126.75107574462891</v>
+        <v>167.72813415527344</v>
       </c>
       <c r="D3" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6359,16 +6793,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>26.806957244873047</v>
+        <v>31.833261489868164</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6376,16 +6810,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="C5" s="2">
-        <v>104.73863983154297</v>
+        <v>139.88349914550781</v>
       </c>
       <c r="D5" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6393,16 +6827,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2">
-        <v>56.612590789794922</v>
+        <v>69.193168640136719</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6410,16 +6844,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C7" s="2">
-        <v>104.7320556640625</v>
+        <v>159.77371215820313</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6427,16 +6861,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="C8" s="2">
-        <v>97.635032653808594</v>
+        <v>134.48881530761719</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6444,16 +6878,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2">
-        <v>32.186305999755859</v>
+        <v>38.297630310058594</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6461,16 +6895,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2">
-        <v>51.620845794677734</v>
+        <v>81.402099609375</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6478,16 +6912,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2">
-        <v>62.776645660400391</v>
+        <v>75.97174072265625</v>
       </c>
       <c r="D11" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6495,16 +6929,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="C12" s="2">
-        <v>33.240749359130859</v>
+        <v>39.482460021972656</v>
       </c>
       <c r="D12" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6512,16 +6946,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>4806</v>
+        <v>5826</v>
       </c>
       <c r="C13" s="2">
-        <v>202.18074035644531</v>
+        <v>245.09051513671875</v>
       </c>
       <c r="D13" s="2">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="E13" s="2">
-        <v>616</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6529,16 +6963,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>694</v>
+        <v>872</v>
       </c>
       <c r="C14" s="2">
-        <v>233.24595642089844</v>
+        <v>293.06982421875</v>
       </c>
       <c r="D14" s="2">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6546,16 +6980,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>478</v>
+        <v>649</v>
       </c>
       <c r="C15" s="2">
-        <v>124.57227325439453</v>
+        <v>169.13682556152344</v>
       </c>
       <c r="D15" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6563,16 +6997,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
-        <v>29.03538703918457</v>
+        <v>35.409008026123047</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6580,16 +7014,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C17" s="2">
-        <v>68.816795349121094</v>
+        <v>87.585006713867188</v>
       </c>
       <c r="D17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6597,16 +7031,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2">
-        <v>45.242046356201172</v>
+        <v>53.393764495849609</v>
       </c>
       <c r="D18" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6614,16 +7048,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="C19" s="2">
-        <v>137.39599609375</v>
+        <v>175.46086120605469</v>
       </c>
       <c r="D19" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6631,16 +7065,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1106</v>
+        <v>1442</v>
       </c>
       <c r="C20" s="2">
-        <v>64.083213806152344</v>
+        <v>83.551528930664063</v>
       </c>
       <c r="D20" s="2">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6648,16 +7082,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>388</v>
+        <v>617</v>
       </c>
       <c r="C21" s="2">
-        <v>127.29450225830078</v>
+        <v>202.42449951171875</v>
       </c>
       <c r="D21" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6665,16 +7099,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1011</v>
+        <v>1158</v>
       </c>
       <c r="C22" s="2">
-        <v>217.18815612792969</v>
+        <v>248.76744079589844</v>
       </c>
       <c r="D22" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6687,10 +7121,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6711,13 +7145,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>5586</v>
+        <v>6776</v>
       </c>
       <c r="C2" s="2">
-        <v>688</v>
+        <v>803</v>
       </c>
       <c r="D2" s="2">
-        <v>594</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6725,13 +7159,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>5857</v>
+        <v>7606</v>
       </c>
       <c r="C3" s="2">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2">
-        <v>439</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6739,7 +7173,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -6757,11 +7191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6782,10 +7219,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -6796,10 +7233,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -6810,13 +7247,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>833</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6824,13 +7261,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1057</v>
+        <v>1369</v>
       </c>
       <c r="C5" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6838,13 +7275,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1460</v>
+        <v>1841</v>
       </c>
       <c r="C6" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6852,13 +7289,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>1961</v>
+        <v>2436</v>
       </c>
       <c r="C7" s="2">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D7" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6866,13 +7303,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>1590</v>
+        <v>1969</v>
       </c>
       <c r="C8" s="2">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="D8" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6880,13 +7317,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>1617</v>
+        <v>1980</v>
       </c>
       <c r="C9" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2">
-        <v>256</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6894,13 +7331,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>1778</v>
+        <v>2304</v>
       </c>
       <c r="C10" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
-        <v>430</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6908,13 +7345,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>916</v>
+        <v>1179</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>223</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6922,7 +7359,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -6940,9 +7377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
+++ b/sweden/covid_deaths/Folkhalsomyndigheten_Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 19 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 28 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -165,7 +165,7 @@
     <t>Ålder_70_79</t>
   </si>
   <si>
-    <t>Ålder_80_90</t>
+    <t>Ålder_80_89</t>
   </si>
   <si>
     <t>Ålder_90_plus</t>
@@ -505,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -4673,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="N59" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O59" s="2">
         <v>49</v>
       </c>
       <c r="P59" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q59" s="2">
         <v>2</v>
@@ -4708,7 +4708,7 @@
         <v>43923</v>
       </c>
       <c r="B60" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
@@ -4744,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="N60" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O60" s="2">
         <v>34</v>
@@ -4779,7 +4779,7 @@
         <v>43924</v>
       </c>
       <c r="B61" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -4788,7 +4788,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2">
         <v>16</v>
@@ -4815,7 +4815,7 @@
         <v>24</v>
       </c>
       <c r="N61" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O61" s="2">
         <v>59</v>
@@ -4842,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="W61" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4921,7 +4921,7 @@
         <v>43926</v>
       </c>
       <c r="B63" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S63" s="2">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>43927</v>
       </c>
       <c r="B64" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K64" s="2">
         <v>3</v>
@@ -5025,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="M64" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N64" s="2">
         <v>131</v>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="R64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S64" s="2">
         <v>4</v>
@@ -5134,7 +5134,7 @@
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -5205,13 +5205,13 @@
         <v>43930</v>
       </c>
       <c r="B67" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -5256,10 +5256,10 @@
         <v>12</v>
       </c>
       <c r="S67" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U67" s="2">
         <v>116</v>
@@ -5418,7 +5418,7 @@
         <v>43933</v>
       </c>
       <c r="B70" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -5475,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="U70" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V70" s="2">
         <v>75</v>
@@ -5489,7 +5489,7 @@
         <v>43934</v>
       </c>
       <c r="B71" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>48</v>
       </c>
       <c r="V71" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W71" s="2">
         <v>31</v>
@@ -5670,10 +5670,10 @@
         <v>215</v>
       </c>
       <c r="O73" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P73" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="2">
         <v>3</v>
@@ -5702,7 +5702,7 @@
         <v>43937</v>
       </c>
       <c r="B74" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>31</v>
       </c>
       <c r="U74" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V74" s="2">
         <v>30</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G75" s="2">
         <v>9</v>
@@ -5809,7 +5809,7 @@
         <v>21</v>
       </c>
       <c r="N75" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="2">
         <v>64</v>
@@ -5844,7 +5844,7 @@
         <v>43939</v>
       </c>
       <c r="B76" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>17</v>
       </c>
       <c r="N76" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O76" s="2">
         <v>8</v>
@@ -5898,10 +5898,10 @@
         <v>2</v>
       </c>
       <c r="T76" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U76" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V76" s="2">
         <v>52</v>
@@ -5915,70 +5915,709 @@
         <v>43940</v>
       </c>
       <c r="B77" s="2">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H77" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K77" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L77" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N77" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="O77" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P77" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q77" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R77" s="2">
         <v>7</v>
       </c>
       <c r="S77" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T77" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U77" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W77" s="2">
-        <v>0</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B78" s="2">
+        <v>462</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>8</v>
+      </c>
+      <c r="J78" s="2">
+        <v>6</v>
+      </c>
+      <c r="K78" s="2">
+        <v>9</v>
+      </c>
+      <c r="L78" s="2">
+        <v>8</v>
+      </c>
+      <c r="M78" s="2">
+        <v>9</v>
+      </c>
+      <c r="N78" s="2">
+        <v>211</v>
+      </c>
+      <c r="O78" s="2">
+        <v>14</v>
+      </c>
+      <c r="P78" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>7</v>
+      </c>
+      <c r="R78" s="2">
+        <v>4</v>
+      </c>
+      <c r="S78" s="2">
+        <v>2</v>
+      </c>
+      <c r="T78" s="2">
+        <v>28</v>
+      </c>
+      <c r="U78" s="2">
+        <v>50</v>
+      </c>
+      <c r="V78" s="2">
+        <v>23</v>
+      </c>
+      <c r="W78" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B79" s="2">
+        <v>709</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>22</v>
+      </c>
+      <c r="G79" s="2">
+        <v>17</v>
+      </c>
+      <c r="H79" s="2">
+        <v>13</v>
+      </c>
+      <c r="I79" s="2">
+        <v>49</v>
+      </c>
+      <c r="J79" s="2">
+        <v>11</v>
+      </c>
+      <c r="K79" s="2">
+        <v>14</v>
+      </c>
+      <c r="L79" s="2">
+        <v>3</v>
+      </c>
+      <c r="M79" s="2">
+        <v>7</v>
+      </c>
+      <c r="N79" s="2">
+        <v>163</v>
+      </c>
+      <c r="O79" s="2">
+        <v>55</v>
+      </c>
+      <c r="P79" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>7</v>
+      </c>
+      <c r="R79" s="2">
+        <v>5</v>
+      </c>
+      <c r="S79" s="2">
+        <v>12</v>
+      </c>
+      <c r="T79" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" s="2">
+        <v>123</v>
+      </c>
+      <c r="V79" s="2">
+        <v>64</v>
+      </c>
+      <c r="W79" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B80" s="2">
+        <v>721</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2">
+        <v>33</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
+        <v>22</v>
+      </c>
+      <c r="G80" s="2">
+        <v>19</v>
+      </c>
+      <c r="H80" s="2">
+        <v>17</v>
+      </c>
+      <c r="I80" s="2">
+        <v>31</v>
+      </c>
+      <c r="J80" s="2">
+        <v>11</v>
+      </c>
+      <c r="K80" s="2">
+        <v>13</v>
+      </c>
+      <c r="L80" s="2">
+        <v>5</v>
+      </c>
+      <c r="M80" s="2">
+        <v>20</v>
+      </c>
+      <c r="N80" s="2">
+        <v>288</v>
+      </c>
+      <c r="O80" s="2">
+        <v>50</v>
+      </c>
+      <c r="P80" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>5</v>
+      </c>
+      <c r="R80" s="2">
+        <v>9</v>
+      </c>
+      <c r="S80" s="2">
+        <v>4</v>
+      </c>
+      <c r="T80" s="2">
+        <v>18</v>
+      </c>
+      <c r="U80" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" s="2">
+        <v>27</v>
+      </c>
+      <c r="W80" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B81" s="2">
+        <v>748</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>42</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>13</v>
+      </c>
+      <c r="G81" s="2">
+        <v>9</v>
+      </c>
+      <c r="H81" s="2">
+        <v>8</v>
+      </c>
+      <c r="I81" s="2">
+        <v>46</v>
+      </c>
+      <c r="J81" s="2">
+        <v>11</v>
+      </c>
+      <c r="K81" s="2">
+        <v>25</v>
+      </c>
+      <c r="L81" s="2">
+        <v>15</v>
+      </c>
+      <c r="M81" s="2">
+        <v>22</v>
+      </c>
+      <c r="N81" s="2">
+        <v>286</v>
+      </c>
+      <c r="O81" s="2">
+        <v>26</v>
+      </c>
+      <c r="P81" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>3</v>
+      </c>
+      <c r="R81" s="2">
+        <v>12</v>
+      </c>
+      <c r="S81" s="2">
+        <v>17</v>
+      </c>
+      <c r="T81" s="2">
+        <v>26</v>
+      </c>
+      <c r="U81" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" s="2">
+        <v>38</v>
+      </c>
+      <c r="W81" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B82" s="2">
+        <v>770</v>
+      </c>
+      <c r="C82" s="2">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2">
+        <v>29</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>19</v>
+      </c>
+      <c r="G82" s="2">
+        <v>8</v>
+      </c>
+      <c r="H82" s="2">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2">
+        <v>24</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>2</v>
+      </c>
+      <c r="L82" s="2">
+        <v>8</v>
+      </c>
+      <c r="M82" s="2">
+        <v>38</v>
+      </c>
+      <c r="N82" s="2">
+        <v>224</v>
+      </c>
+      <c r="O82" s="2">
+        <v>53</v>
+      </c>
+      <c r="P82" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>4</v>
+      </c>
+      <c r="R82" s="2">
+        <v>12</v>
+      </c>
+      <c r="S82" s="2">
+        <v>16</v>
+      </c>
+      <c r="T82" s="2">
+        <v>37</v>
+      </c>
+      <c r="U82" s="2">
+        <v>147</v>
+      </c>
+      <c r="V82" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B83" s="2">
+        <v>474</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2">
+        <v>23</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>13</v>
+      </c>
+      <c r="I83" s="2">
+        <v>19</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>21</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>12</v>
+      </c>
+      <c r="N83" s="2">
+        <v>139</v>
+      </c>
+      <c r="O83" s="2">
+        <v>8</v>
+      </c>
+      <c r="P83" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>5</v>
+      </c>
+      <c r="R83" s="2">
+        <v>6</v>
+      </c>
+      <c r="S83" s="2">
+        <v>5</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>94</v>
+      </c>
+      <c r="V83" s="2">
+        <v>37</v>
+      </c>
+      <c r="W83" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B84" s="2">
+        <v>299</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>5</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2">
+        <v>4</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>23</v>
+      </c>
+      <c r="N84" s="2">
+        <v>111</v>
+      </c>
+      <c r="O84" s="2">
+        <v>8</v>
+      </c>
+      <c r="P84" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>2</v>
+      </c>
+      <c r="R84" s="2">
+        <v>11</v>
+      </c>
+      <c r="S84" s="2">
+        <v>12</v>
+      </c>
+      <c r="T84" s="2">
+        <v>24</v>
+      </c>
+      <c r="U84" s="2">
+        <v>46</v>
+      </c>
+      <c r="V84" s="2">
+        <v>17</v>
+      </c>
+      <c r="W84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B85" s="2">
+        <v>543</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2">
+        <v>13</v>
+      </c>
+      <c r="H85" s="2">
+        <v>6</v>
+      </c>
+      <c r="I85" s="2">
+        <v>23</v>
+      </c>
+      <c r="J85" s="2">
+        <v>7</v>
+      </c>
+      <c r="K85" s="2">
+        <v>7</v>
+      </c>
+      <c r="L85" s="2">
+        <v>10</v>
+      </c>
+      <c r="M85" s="2">
+        <v>34</v>
+      </c>
+      <c r="N85" s="2">
+        <v>196</v>
+      </c>
+      <c r="O85" s="2">
+        <v>10</v>
+      </c>
+      <c r="P85" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>8</v>
+      </c>
+      <c r="R85" s="2">
+        <v>4</v>
+      </c>
+      <c r="S85" s="2">
+        <v>11</v>
+      </c>
+      <c r="T85" s="2">
+        <v>24</v>
+      </c>
+      <c r="U85" s="2">
+        <v>101</v>
+      </c>
+      <c r="V85" s="2">
+        <v>18</v>
+      </c>
+      <c r="W85" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B86" s="2">
+        <v>231</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3</v>
+      </c>
+      <c r="G86" s="2">
+        <v>25</v>
+      </c>
+      <c r="H86" s="2">
+        <v>5</v>
+      </c>
+      <c r="I86" s="2">
+        <v>4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>88</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>2</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2">
+        <v>13</v>
+      </c>
+      <c r="U86" s="2">
+        <v>22</v>
+      </c>
+      <c r="V86" s="2">
+        <v>39</v>
+      </c>
+      <c r="W86" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5988,15 +6627,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6084,7 +6721,7 @@
         <v>43910</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6092,7 +6729,7 @@
         <v>43911</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6124,7 +6761,7 @@
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6132,7 +6769,7 @@
         <v>43916</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6156,7 +6793,7 @@
         <v>43919</v>
       </c>
       <c r="B20" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6164,7 +6801,7 @@
         <v>43920</v>
       </c>
       <c r="B21" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6172,7 +6809,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6180,7 +6817,7 @@
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6188,7 +6825,7 @@
         <v>43923</v>
       </c>
       <c r="B24" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6196,7 +6833,7 @@
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6204,7 +6841,7 @@
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6212,7 +6849,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6220,7 +6857,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6228,7 +6865,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6236,7 +6873,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6244,7 +6881,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6252,7 +6889,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6260,7 +6897,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6268,7 +6905,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6276,7 +6913,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6284,7 +6921,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6292,7 +6929,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6300,7 +6937,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6308,7 +6945,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6316,7 +6953,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6324,15 +6961,87 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B42" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B44" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B45" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B47" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B48" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B49" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="2">
-        <v>19</v>
+      <c r="B51" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6342,13 +7051,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6380,7 +7089,7 @@
         <v>43898</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6492,7 +7201,7 @@
         <v>43912</v>
       </c>
       <c r="B18" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6500,7 +7209,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6508,7 +7217,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6524,7 +7233,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6532,7 +7241,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6540,7 +7249,7 @@
         <v>43918</v>
       </c>
       <c r="B24" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6556,7 +7265,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6564,7 +7273,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6572,7 +7281,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6588,7 +7297,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6596,7 +7305,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6612,7 +7321,7 @@
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6620,7 +7329,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6628,7 +7337,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6636,7 +7345,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6652,7 +7361,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6660,7 +7369,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6668,7 +7377,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6676,7 +7385,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6684,7 +7393,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6692,7 +7401,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6700,7 +7409,7 @@
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6708,7 +7417,7 @@
         <v>43939</v>
       </c>
       <c r="B45" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6716,7 +7425,79 @@
         <v>43940</v>
       </c>
       <c r="B46" s="2">
-        <v>6</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B47" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B48" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B51" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B52" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B53" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B54" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6730,11 +7511,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6759,10 +7542,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>26.941343307495117</v>
+        <v>40.098743438720703</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -6776,16 +7559,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>483</v>
+        <v>697</v>
       </c>
       <c r="C3" s="2">
-        <v>167.72813415527344</v>
+        <v>242.04246520996094</v>
       </c>
       <c r="D3" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6793,10 +7576,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
-        <v>31.833261489868164</v>
+        <v>58.640216827392578</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6810,16 +7593,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>402</v>
+        <v>534</v>
       </c>
       <c r="C5" s="2">
-        <v>139.88349914550781</v>
+        <v>185.81539916992188</v>
       </c>
       <c r="D5" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6827,16 +7610,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2">
-        <v>69.193168640136719</v>
+        <v>102.14229583740234</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6844,16 +7627,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2">
-        <v>159.77371215820313</v>
+        <v>220.16665649414063</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6861,16 +7644,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>489</v>
+        <v>712</v>
       </c>
       <c r="C8" s="2">
-        <v>134.48881530761719</v>
+        <v>195.82011413574219</v>
       </c>
       <c r="D8" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6878,16 +7661,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2">
-        <v>38.297630310058594</v>
+        <v>61.520660400390625</v>
       </c>
       <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
         <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6895,16 +7678,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2">
-        <v>81.402099609375</v>
+        <v>134.01565551757813</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6912,16 +7695,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2">
-        <v>75.97174072265625</v>
+        <v>97.163856506347656</v>
       </c>
       <c r="D11" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6929,16 +7712,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>544</v>
+        <v>713</v>
       </c>
       <c r="C12" s="2">
-        <v>39.482460021972656</v>
+        <v>51.748149871826172</v>
       </c>
       <c r="D12" s="2">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6946,16 +7729,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>5826</v>
+        <v>7622</v>
       </c>
       <c r="C13" s="2">
-        <v>245.09051513671875</v>
+        <v>320.64535522460938</v>
       </c>
       <c r="D13" s="2">
-        <v>455</v>
+        <v>562</v>
       </c>
       <c r="E13" s="2">
-        <v>921</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6963,16 +7746,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>872</v>
+        <v>1107</v>
       </c>
       <c r="C14" s="2">
-        <v>293.06982421875</v>
+        <v>372.05081176757813</v>
       </c>
       <c r="D14" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6980,16 +7763,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>649</v>
+        <v>914</v>
       </c>
       <c r="C15" s="2">
-        <v>169.13682556152344</v>
+        <v>238.19886779785156</v>
       </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6997,16 +7780,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2">
-        <v>35.409008026123047</v>
+        <v>52.051242828369141</v>
       </c>
       <c r="D16" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7014,16 +7797,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="C17" s="2">
-        <v>87.585006713867188</v>
+        <v>110.03326416015625</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7031,16 +7814,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2">
-        <v>53.393764495849609</v>
+        <v>89.668914794921875</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7048,16 +7831,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>484</v>
+        <v>723</v>
       </c>
       <c r="C19" s="2">
-        <v>175.46086120605469</v>
+        <v>262.10372924804688</v>
       </c>
       <c r="D19" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7065,16 +7848,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1442</v>
+        <v>2212</v>
       </c>
       <c r="C20" s="2">
-        <v>83.551528930664063</v>
+        <v>128.16642761230469</v>
       </c>
       <c r="D20" s="2">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="E20" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7082,16 +7865,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>617</v>
+        <v>928</v>
       </c>
       <c r="C21" s="2">
-        <v>202.42449951171875</v>
+        <v>304.45693969726563</v>
       </c>
       <c r="D21" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7099,16 +7882,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1158</v>
+        <v>1401</v>
       </c>
       <c r="C22" s="2">
-        <v>248.76744079589844</v>
+        <v>300.96994018554688</v>
       </c>
       <c r="D22" s="2">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7120,11 +7903,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7145,13 +7932,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>6776</v>
+        <v>8828</v>
       </c>
       <c r="C2" s="2">
-        <v>803</v>
+        <v>1028</v>
       </c>
       <c r="D2" s="2">
-        <v>874</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7159,13 +7946,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>7606</v>
+        <v>10790</v>
       </c>
       <c r="C3" s="2">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2">
-        <v>666</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7191,13 +7978,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7219,7 +8007,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7233,10 +8021,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -7247,13 +8035,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1038</v>
+        <v>1486</v>
       </c>
       <c r="C4" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7261,13 +8049,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1369</v>
+        <v>1980</v>
       </c>
       <c r="C5" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7275,13 +8063,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1841</v>
+        <v>2573</v>
       </c>
       <c r="C6" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7289,13 +8077,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>2436</v>
+        <v>3443</v>
       </c>
       <c r="C7" s="2">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="D7" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7303,13 +8091,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>1969</v>
+        <v>2585</v>
       </c>
       <c r="C8" s="2">
-        <v>330</v>
+        <v>425</v>
       </c>
       <c r="D8" s="2">
-        <v>121</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7317,13 +8105,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>1980</v>
+        <v>2530</v>
       </c>
       <c r="C9" s="2">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2">
-        <v>367</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7331,13 +8119,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2304</v>
+        <v>3056</v>
       </c>
       <c r="C10" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>627</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7345,13 +8133,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1179</v>
+        <v>1622</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>349</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7359,7 +8147,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -7379,7 +8167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
